--- a/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_+20%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_+20%.xlsx
@@ -73695,6 +73695,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12.26266666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>449.1166666666666</v>
       </c>
@@ -73750,6 +73753,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.70266666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>437.5411111111111</v>
       </c>
@@ -73805,6 +73811,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.63816666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>434.4188888888889</v>
       </c>
@@ -73860,6 +73869,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>14.29516666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>443.5355555555556</v>
       </c>
@@ -73915,6 +73927,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>14.36016666666667</v>
+      </c>
       <c r="C6" t="n">
         <v>459.5611111111111</v>
       </c>
@@ -73970,6 +73985,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.6845</v>
+      </c>
       <c r="C7" t="n">
         <v>446.9477777777778</v>
       </c>
@@ -74025,6 +74043,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.51816666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>424.9127777777778</v>
       </c>
@@ -74080,6 +74101,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>14.0035</v>
+      </c>
       <c r="C9" t="n">
         <v>459.5294444444444</v>
       </c>
@@ -74135,6 +74159,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.63666666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>459.9461111111111</v>
       </c>
@@ -74190,6 +74217,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.90366666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>453.9683333333334</v>
       </c>
@@ -74245,6 +74275,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.0305</v>
+      </c>
       <c r="C12" t="n">
         <v>453.915</v>
       </c>
@@ -74300,6 +74333,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>12.44766666666667</v>
+      </c>
       <c r="C13" t="n">
         <v>431.3733333333333</v>
       </c>
@@ -74355,6 +74391,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.51283333333333</v>
+      </c>
       <c r="C14" t="n">
         <v>419.3266666666666</v>
       </c>
@@ -74410,6 +74449,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.37383333333333</v>
+      </c>
       <c r="C15" t="n">
         <v>450.3361111111111</v>
       </c>
@@ -74465,6 +74507,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>14.59866666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>453.0433333333334</v>
       </c>
@@ -74520,6 +74565,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>14.06766666666667</v>
+      </c>
       <c r="C17" t="n">
         <v>468.5716666666667</v>
       </c>
@@ -74575,6 +74623,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>15.2215</v>
+      </c>
       <c r="C18" t="n">
         <v>473.3194444444445</v>
       </c>
@@ -74630,6 +74681,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.07516666666667</v>
+      </c>
       <c r="C19" t="n">
         <v>460.4283333333333</v>
       </c>
@@ -74685,6 +74739,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.831</v>
+      </c>
       <c r="C20" t="n">
         <v>429.1355555555555</v>
       </c>
@@ -74740,6 +74797,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.03766666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>455.9122222222222</v>
       </c>
@@ -74795,6 +74855,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.609</v>
+      </c>
       <c r="C22" t="n">
         <v>427.0705555555556</v>
       </c>
@@ -74850,6 +74913,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.92333333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>435.6394444444444</v>
       </c>
@@ -74905,6 +74971,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.29166666666667</v>
+      </c>
       <c r="C24" t="n">
         <v>457.4383333333334</v>
       </c>
@@ -74960,6 +75029,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>13.748</v>
+      </c>
       <c r="C25" t="n">
         <v>440.4422222222222</v>
       </c>
@@ -75015,6 +75087,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>13.46616666666667</v>
+      </c>
       <c r="C26" t="n">
         <v>428.6283333333333</v>
       </c>
@@ -75070,6 +75145,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.98483333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>430.9377777777778</v>
       </c>
@@ -75125,6 +75203,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>12.6505</v>
+      </c>
       <c r="C28" t="n">
         <v>421.5955555555555</v>
       </c>
@@ -75180,6 +75261,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.95383333333333</v>
+      </c>
       <c r="C29" t="n">
         <v>462.0805555555556</v>
       </c>
@@ -75235,6 +75319,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.81366666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>466.9911111111111</v>
       </c>
@@ -75289,6 +75376,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.56483333333333</v>
       </c>
       <c r="C31" t="n">
         <v>432.0044444444445</v>
